--- a/resource/40.design/411.메뉴구조도.xlsx
+++ b/resource/40.design/411.메뉴구조도.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>쇼핑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,22 @@
   </si>
   <si>
     <t>변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리동네 동물병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리동네 동물약국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물병원보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물약국보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -303,19 +319,130 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -324,132 +451,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -521,73 +522,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -596,71 +657,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -942,534 +943,440 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U43"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="19.125" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.125" customWidth="1"/>
-    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9" style="7"/>
+    <col min="4" max="4" width="21.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="7"/>
+    <col min="8" max="8" width="21.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="7" customWidth="1"/>
+    <col min="10" max="10" width="19.125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="7"/>
+    <col min="13" max="13" width="19.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="7"/>
+    <col min="17" max="17" width="16.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5" style="7" customWidth="1"/>
+    <col min="19" max="19" width="13" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-    </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+    <row r="1" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="23" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="U2" s="3"/>
-    </row>
-    <row r="3" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="43"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="12"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="23" t="s">
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="29"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="43"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="S4" s="8"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="43" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="7" t="s">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+      <c r="D5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="21" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="28" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="21" t="s">
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="M5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="21" t="s">
+      <c r="O5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="12"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="23"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="44" t="s">
+      <c r="Q5" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="8"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="43"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
+      <c r="D6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="11"/>
       <c r="H6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="1" t="s">
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
+      <c r="M6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="12"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="23" t="s">
+      <c r="Q6" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="S6" s="8"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="43" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="1" t="s">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="D7" s="30"/>
+      <c r="F7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="11"/>
       <c r="H7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="1" t="s">
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
+      <c r="M7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="23"/>
-    </row>
-    <row r="8" spans="2:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="1" t="s">
+      <c r="S7" s="8"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="43"/>
+    </row>
+    <row r="8" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="19" t="s">
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="12"/>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="1" t="s">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="15"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="2" t="s">
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="D10" s="31"/>
+      <c r="F10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="47" t="s">
+      <c r="H10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="12"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="12"/>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="12"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="21" t="s">
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="37"/>
+      <c r="N10" s="18"/>
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="N11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="N12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="D13" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="21" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="21" t="s">
+      <c r="G13" s="18"/>
+      <c r="H13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="28" t="s">
+      <c r="I13" s="18"/>
+      <c r="J13" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="21" t="s">
+      <c r="K13" s="23"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="21" t="s">
+      <c r="N13" s="18"/>
+      <c r="O13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="12"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="1" t="s">
+      <c r="P13" s="18"/>
+      <c r="Q13" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+      <c r="D14" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="31"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="1" t="s">
+      <c r="K14" s="39"/>
+      <c r="M14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="19" t="s">
+      <c r="O14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="12"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="1" t="s">
+      <c r="Q14" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="D15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="11"/>
       <c r="J15" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="1" t="s">
+      <c r="K15" s="34"/>
+      <c r="M15" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="12"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="1" t="s">
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="D16" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="34"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="1" t="s">
+      <c r="K16" s="41"/>
+      <c r="M16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="12"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="1" t="s">
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="D17" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="12"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="2" t="s">
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="D18" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="12"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="2" t="s">
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B19" s="6"/>
+      <c r="M19" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="12"/>
-    </row>
-    <row r="20" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="18"/>
-    </row>
-    <row r="43" spans="4:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D43" s="16"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="18"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="14"/>
+    </row>
+    <row r="43" spans="20:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="U2:U3"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="B2:S3"/>
     <mergeCell ref="D6:D10"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/40.design/411.메뉴구조도.xlsx
+++ b/resource/40.design/411.메뉴구조도.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Happy Steps 메뉴구조도" sheetId="1" r:id="rId1"/>
+    <sheet name=" Happy Steps  회원 메뉴구조도" sheetId="1" r:id="rId1"/>
+    <sheet name=" Happy Steps  관리자메뉴구조도" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t>쇼핑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Happy Steps 메뉴구조도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,6 +248,130 @@
   </si>
   <si>
     <t>동물약국보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Happy Steps] 회원 메뉴구조도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Happy Steps] 관리자 메뉴구조도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원상태관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체상품관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 상태 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 리뷰 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1 문의 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1문의 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입양관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공고 상태관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후원금 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후원금 내역확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출처 내역관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입양 현황 통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 가입 통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소/교환/환불 통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문전체관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소/교환/환불관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -307,7 +428,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -512,13 +633,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -582,85 +718,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -945,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -977,54 +1122,54 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="43" t="s">
-        <v>50</v>
-      </c>
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="29"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="43"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="41"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="23"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
@@ -1034,9 +1179,9 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="S4" s="8"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="43" t="s">
-        <v>51</v>
+      <c r="U4" s="24"/>
+      <c r="V4" s="23" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -1049,67 +1194,67 @@
         <v>7</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="27"/>
       <c r="M5" s="17" t="s">
         <v>23</v>
       </c>
       <c r="O5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="46" t="s">
-        <v>53</v>
+      <c r="Q5" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="8"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="43"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="23"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="42" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="31"/>
       <c r="M6" s="19" t="s">
         <v>11</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="47" t="s">
-        <v>55</v>
+      <c r="Q6" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="S6" s="8"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="43" t="s">
-        <v>52</v>
+      <c r="U6" s="25"/>
+      <c r="V6" s="23" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
-      <c r="D7" s="30"/>
+      <c r="D7" s="42"/>
       <c r="F7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="34"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="31"/>
       <c r="M7" s="19" t="s">
         <v>24</v>
       </c>
@@ -1117,25 +1262,25 @@
         <v>38</v>
       </c>
       <c r="S7" s="8"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="43"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="23"/>
     </row>
     <row r="8" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="9"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="30"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="7"/>
       <c r="F8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="31"/>
       <c r="L8" s="7"/>
       <c r="M8" s="15" t="s">
         <v>25</v>
@@ -1150,18 +1295,18 @@
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="30"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="2"/>
       <c r="F9" s="19" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="10"/>
@@ -1173,16 +1318,16 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
-      <c r="D10" s="31"/>
+      <c r="D10" s="43"/>
       <c r="F10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="37"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="47"/>
       <c r="N10" s="18"/>
       <c r="S10" s="8"/>
     </row>
@@ -1216,10 +1361,10 @@
         <v>18</v>
       </c>
       <c r="I13" s="18"/>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="23"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="18"/>
       <c r="M13" s="17" t="s">
         <v>30</v>
@@ -1229,8 +1374,8 @@
         <v>40</v>
       </c>
       <c r="P13" s="18"/>
-      <c r="Q13" s="46" t="s">
-        <v>54</v>
+      <c r="Q13" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="8"/>
@@ -1246,18 +1391,18 @@
       <c r="H14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="J14" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="39"/>
+      <c r="K14" s="29"/>
       <c r="M14" s="19" t="s">
         <v>31</v>
       </c>
       <c r="O14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" s="47" t="s">
-        <v>56</v>
+      <c r="Q14" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="S14" s="8"/>
     </row>
@@ -1272,10 +1417,10 @@
       <c r="H15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="34"/>
+      <c r="K15" s="31"/>
       <c r="M15" s="19" t="s">
         <v>32</v>
       </c>
@@ -1292,10 +1437,10 @@
       <c r="H16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="40" t="s">
+      <c r="J16" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="41"/>
+      <c r="K16" s="33"/>
       <c r="M16" s="19" t="s">
         <v>34</v>
       </c>
@@ -1359,11 +1504,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
@@ -1377,9 +1517,477 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="H10:K10"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9" style="7"/>
+    <col min="3" max="3" width="13" style="7" customWidth="1"/>
+    <col min="4" max="4" width="21.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="7"/>
+    <col min="11" max="11" width="19.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="17.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="7"/>
+    <col min="15" max="15" width="21.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="20.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B2" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="41"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="23"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
+      <c r="R4" s="8"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="R5" s="8"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="23"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" s="8"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="R7" s="8"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="23"/>
+    </row>
+    <row r="8" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="R8" s="11"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="G9" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="R9" s="8"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="R10" s="8"/>
+    </row>
+    <row r="11" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="14"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>